--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/col/Documents/GitHub/Pan-Tilt-Slider-Mount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC052FB-D659-9043-8F86-D6B7A896C465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E08309E-E9C6-7341-9780-AF6F5CDB1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1600" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{7D7507C8-E512-8F40-AC52-54E4FCE5CD5C}"/>
+    <workbookView xWindow="2200" yWindow="1600" windowWidth="28040" windowHeight="17440" xr2:uid="{7D7507C8-E512-8F40-AC52-54E4FCE5CD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
   <si>
     <t>Circuit</t>
   </si>
@@ -127,9 +127,6 @@
     <t>4 pin Mini XLR Socket</t>
   </si>
   <si>
-    <t>150x120x16mm Bearing</t>
-  </si>
-  <si>
     <t>F688ZZ Flanged Bearing 8 x 16 x 5mm</t>
   </si>
   <si>
@@ -320,13 +317,28 @@
   </si>
   <si>
     <t>Nema14 1.8 deg 68Ncm</t>
+  </si>
+  <si>
+    <t>6824ZZ 120x150x16mm Bearing</t>
+  </si>
+  <si>
+    <t>https://simplybearings.co.uk/shop/p170416/6824ZZ-Budget-Metal-Shielded-Thin-Section-Deep-Groove-Ball-Bearing-120x150x16mm/product_info.html</t>
+  </si>
+  <si>
+    <t>Link to 120 x 150 x 16 bearing</t>
+  </si>
+  <si>
+    <t>433MHz Antenna</t>
+  </si>
+  <si>
+    <t>U.FL Mini PCI to SMA Female 10cm Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -351,6 +363,14 @@
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -471,10 +491,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -495,20 +516,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -841,16 +867,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49387D02-6FC5-D140-8324-770FD729D828}">
-  <dimension ref="B3:L20"/>
+  <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="7.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
@@ -859,21 +885,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="17"/>
@@ -883,349 +909,378 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
-      <c r="C4" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C4" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="G4" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="20">
         <v>1</v>
       </c>
       <c r="J4" s="19"/>
-      <c r="K4" s="20" t="s">
+      <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="20" t="s">
         <v>91</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
-      <c r="C5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="21">
+      <c r="C5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="21">
-        <v>1</v>
+      <c r="G5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="20">
+        <v>4</v>
       </c>
       <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21">
+      <c r="C6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20">
         <v>4</v>
       </c>
       <c r="F6" s="19"/>
-      <c r="G6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="21">
-        <v>1</v>
-      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="20"/>
       <c r="J6" s="19"/>
-      <c r="K6" s="20" t="s">
+      <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
       <c r="J7" s="19"/>
-      <c r="K7" s="20" t="s">
+      <c r="K7" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="20">
         <v>1</v>
       </c>
       <c r="J8" s="19"/>
-      <c r="K8" s="20" t="s">
+      <c r="K8" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="G9" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="20">
         <v>1</v>
       </c>
       <c r="J9" s="19"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="20"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>5</v>
       </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="20"/>
       <c r="J10" s="19"/>
-      <c r="K10" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="L10" s="26">
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>4</v>
       </c>
       <c r="F11" s="19"/>
-      <c r="G11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="21">
-        <v>2</v>
+      <c r="G11" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
       </c>
       <c r="J11" s="19"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="20"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="G12" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="20">
         <v>1</v>
       </c>
       <c r="J12" s="19"/>
-      <c r="K12" s="20" t="s">
+      <c r="K12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="21">
+      <c r="C13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="20">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="20"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="20" t="s">
+      <c r="K13" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="20">
         <v>4</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="21">
-        <v>1</v>
+      <c r="G14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="20">
+        <v>2</v>
       </c>
       <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="20"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="21">
+      <c r="C15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="20">
         <v>3</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="21">
-        <v>4</v>
-      </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="20"/>
       <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="21">
+      <c r="C17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="20">
         <v>4</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="20">
         <v>1</v>
       </c>
       <c r="J17" s="19"/>
-      <c r="K17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="21">
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="20">
         <v>3</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <v>1</v>
       </c>
       <c r="J18" s="19"/>
-      <c r="K18" s="20" t="s">
+      <c r="K18" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23" t="s">
+      <c r="D19" s="20"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <v>2</v>
       </c>
       <c r="J19" s="19"/>
-      <c r="K19" s="20" t="s">
+      <c r="K19" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="22"/>
-      <c r="C20" s="23" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="23" t="s">
+      <c r="D20" s="23"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="20"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="24">
-        <v>2</v>
+      <c r="L20" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F21" s="19"/>
+      <c r="G21" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F22" s="21"/>
+      <c r="G22" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G25" s="31" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G25" r:id="rId1" xr:uid="{0D49695B-7C27-D248-8410-A8B8523DE36E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1262,78 +1317,78 @@
   <sheetData>
     <row r="2" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="F3" s="4">
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="4">
+        <v>4</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="4">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="11">
+        <v>2</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="4">
-        <v>4</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>2</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="T3" s="4">
-        <v>4</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="11">
-        <v>2</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="AA3" s="4">
         <v>4</v>
@@ -1341,7 +1396,7 @@
     </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6">
         <v>6</v>
@@ -1351,32 +1406,32 @@
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="L4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="P4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="6">
-        <v>2</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="Q4" s="6">
         <v>1</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T4" s="6">
         <v>2</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" s="8"/>
       <c r="Z4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA4" s="6">
         <v>1</v>
@@ -1384,19 +1439,19 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="10">
+        <v>4</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F5" s="10">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="I5" s="6">
         <v>4</v>
@@ -1406,13 +1461,13 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="8"/>
       <c r="S5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T5" s="6">
         <v>1</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W5" s="1">
         <v>1</v>
@@ -1425,19 +1480,19 @@
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="H6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="6">
         <v>6</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="6">
         <v>2</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="6">
         <v>3</v>
@@ -1448,7 +1503,7 @@
       <c r="W6" s="12"/>
       <c r="X6" s="8"/>
       <c r="Z6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AA6" s="6">
         <v>4</v>
@@ -1456,7 +1511,7 @@
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
@@ -1464,7 +1519,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
       <c r="L7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" s="6">
         <v>4</v>
@@ -1472,20 +1527,20 @@
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
       <c r="S7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" s="6">
         <v>7</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W7" s="1">
         <v>6</v>
       </c>
       <c r="X7" s="8"/>
       <c r="Z7" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AA7" s="10">
         <v>4</v>
@@ -1493,25 +1548,25 @@
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="10">
         <v>10</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M8" s="10">
         <v>2</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="10">
         <v>2</v>
@@ -1524,19 +1579,19 @@
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" s="10">
         <v>2</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" s="1">
         <v>2</v>
@@ -1547,7 +1602,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="V10" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W10" s="13">
         <v>1</v>
@@ -1556,7 +1611,7 @@
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10">
         <v>4</v>
@@ -1564,77 +1619,77 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="Z18" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="Z18" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="4">
         <v>7</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="11">
         <v>6</v>
       </c>
       <c r="J19" s="15"/>
       <c r="L19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19" s="11">
         <v>6</v>
       </c>
       <c r="N19" s="15"/>
       <c r="P19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="4">
         <v>6</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19" s="4">
         <v>4</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W19" s="4">
         <v>2</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA19" s="4">
         <v>4</v>
@@ -1642,7 +1697,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -1668,49 +1723,49 @@
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="E21" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="6">
         <v>4</v>
       </c>
       <c r="H21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="1">
-        <v>2</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="L21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M21" s="1">
         <v>2</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="10">
         <v>2</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T21" s="6">
         <v>4</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W21" s="10">
         <v>2</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AA21" s="6">
         <v>4</v>
@@ -1718,37 +1773,37 @@
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6">
         <v>2</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="10">
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="L22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="1">
-        <v>2</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>76</v>
-      </c>
       <c r="S22" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" s="10">
         <v>4</v>
@@ -1758,31 +1813,31 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="6">
         <v>1</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="1">
-        <v>2</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="L23" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M23" s="13">
         <v>2</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA23" s="6">
         <v>2</v>
@@ -1790,7 +1845,7 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="6">
         <v>4</v>
@@ -1799,7 +1854,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="8"/>
       <c r="Z24" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA24" s="10">
         <v>2</v>
@@ -1809,30 +1864,30 @@
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="H25" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="6">
         <v>4</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I26" s="13">
         <v>2</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
@@ -1841,7 +1896,7 @@
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6">
         <v>2</v>
@@ -1849,7 +1904,7 @@
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B29" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="10">
         <v>4</v>
@@ -1958,7 +2013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05A6369-A534-B74C-B1EF-BFBD994F6239}">
   <dimension ref="B2:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -1986,2051 +2041,2051 @@
     <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="F2" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="27" t="s">
+      <c r="I2" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="P2" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="R2" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="20" t="str">
+        <v>46</v>
+      </c>
+      <c r="C3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D3" s="20">
+      <c r="D3">
         <f>_xlfn.XLOOKUP(B3,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="str">
+      <c r="E3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F3" s="20" t="str">
+      <c r="F3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G3" s="20" t="str">
+      <c r="G3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H3" s="20" t="str">
+      <c r="H3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I3" s="20" t="str">
+      <c r="I3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J3" s="20" t="str">
+      <c r="J3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K3" s="20" t="str">
+      <c r="K3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L3" s="20" t="str">
+      <c r="L3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M3" s="20" t="str">
+      <c r="M3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N3" s="20" t="str">
+      <c r="N3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O3" s="20" t="str">
+      <c r="O3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P3" s="20" t="str">
+      <c r="P3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q3" s="20" t="str">
+      <c r="Q3" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R3" s="21" t="str">
+      <c r="R3" s="20" t="str">
         <f>_xlfn.XLOOKUP(B3,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="20" t="str">
+        <v>47</v>
+      </c>
+      <c r="C4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D4" s="20" t="str">
+      <c r="D4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E4" s="20">
+      <c r="E4">
         <f>_xlfn.XLOOKUP(B4,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="str">
+      <c r="F4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G4" s="20" t="str">
+      <c r="G4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H4" s="20" t="str">
+      <c r="H4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I4" s="20" t="str">
+      <c r="I4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J4" s="20" t="str">
+      <c r="J4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K4" s="20" t="str">
+      <c r="K4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M4" s="20" t="str">
+      <c r="M4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N4" s="20" t="str">
+      <c r="N4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O4" s="20" t="str">
+      <c r="O4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P4" s="20">
+      <c r="P4">
         <f>_xlfn.XLOOKUP(B4,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="Q4" s="20" t="str">
+      <c r="Q4" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R4" s="21" t="str">
+      <c r="R4" s="20" t="str">
         <f>_xlfn.XLOOKUP(B4,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="20" t="str">
+        <v>53</v>
+      </c>
+      <c r="C5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D5" s="20" t="str">
+      <c r="D5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E5" s="20" t="str">
+      <c r="E5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F5" s="20">
+      <c r="F5">
         <f>_xlfn.XLOOKUP(B5,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="G5" s="20" t="str">
+      <c r="G5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H5" s="20">
+      <c r="H5">
         <f>_xlfn.XLOOKUP(B5,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5">
         <f>_xlfn.XLOOKUP(B5,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="J5" s="20" t="str">
+      <c r="J5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K5" s="20">
+      <c r="K5">
         <f>_xlfn.XLOOKUP(B5,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="L5" s="20" t="str">
+      <c r="L5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M5" s="20" t="str">
+      <c r="M5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N5" s="20" t="str">
+      <c r="N5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O5" s="20" t="str">
+      <c r="O5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P5" s="20" t="str">
+      <c r="P5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q5" s="20" t="str">
+      <c r="Q5" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R5" s="21" t="str">
+      <c r="R5" s="20" t="str">
         <f>_xlfn.XLOOKUP(B5,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="20">
+        <v>43</v>
+      </c>
+      <c r="C6">
         <f>_xlfn.XLOOKUP(B6,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="D6" s="20" t="str">
+      <c r="D6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E6" s="20" t="str">
+      <c r="E6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F6" s="20" t="str">
+      <c r="F6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G6" s="20" t="str">
+      <c r="G6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H6" s="20" t="str">
+      <c r="H6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I6" s="20" t="str">
+      <c r="I6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J6" s="20" t="str">
+      <c r="J6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K6" s="20" t="str">
+      <c r="K6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L6" s="20" t="str">
+      <c r="L6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M6" s="20" t="str">
+      <c r="M6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N6" s="20" t="str">
+      <c r="N6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O6" s="20" t="str">
+      <c r="O6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P6" s="20" t="str">
+      <c r="P6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q6" s="20" t="str">
+      <c r="Q6" t="str">
         <f>_xlfn.XLOOKUP(B6,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="20">
         <f>_xlfn.XLOOKUP(B6,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="20" t="str">
+        <v>69</v>
+      </c>
+      <c r="C7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D7" s="20" t="str">
+      <c r="D7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E7" s="20" t="str">
+      <c r="E7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F7" s="20" t="str">
+      <c r="F7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G7" s="20" t="str">
+      <c r="G7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I7" s="20" t="str">
+      <c r="I7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J7" s="20" t="str">
+      <c r="J7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K7" s="20">
+      <c r="K7">
         <f>_xlfn.XLOOKUP(B7,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="20" t="str">
+      <c r="L7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M7" s="20">
+      <c r="M7">
         <f>_xlfn.XLOOKUP(B7,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="N7" s="20" t="str">
+      <c r="N7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O7" s="20" t="str">
+      <c r="O7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P7" s="20" t="str">
+      <c r="P7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q7" s="20" t="str">
+      <c r="Q7" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R7" s="21" t="str">
+      <c r="R7" s="20" t="str">
         <f>_xlfn.XLOOKUP(B7,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="20" t="str">
+        <v>48</v>
+      </c>
+      <c r="C8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D8" s="20" t="str">
+      <c r="D8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E8" s="20">
+      <c r="E8">
         <f>_xlfn.XLOOKUP(B8,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="F8" s="20" t="str">
+      <c r="F8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G8" s="20">
+      <c r="G8">
         <f>_xlfn.XLOOKUP(B8,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8">
         <f>_xlfn.XLOOKUP(B8,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="20" t="str">
+      <c r="I8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J8" s="20" t="str">
+      <c r="J8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K8" s="20" t="str">
+      <c r="K8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L8" s="20" t="str">
+      <c r="L8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M8" s="20" t="str">
+      <c r="M8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N8" s="20" t="str">
+      <c r="N8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O8" s="20" t="str">
+      <c r="O8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P8" s="20" t="str">
+      <c r="P8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q8" s="20" t="str">
+      <c r="Q8" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R8" s="21" t="str">
+      <c r="R8" s="20" t="str">
         <f>_xlfn.XLOOKUP(B8,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="20">
+        <v>42</v>
+      </c>
+      <c r="C9">
         <f>_xlfn.XLOOKUP(B9,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="D9" s="20" t="str">
+      <c r="D9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E9" s="20" t="str">
+      <c r="E9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F9" s="20" t="str">
+      <c r="F9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G9" s="20">
+      <c r="G9">
         <f>_xlfn.XLOOKUP(B9,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9">
         <f>_xlfn.XLOOKUP(B9,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="I9" s="20" t="str">
+      <c r="I9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J9" s="20" t="str">
+      <c r="J9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K9" s="20" t="str">
+      <c r="K9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L9" s="20" t="str">
+      <c r="L9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M9" s="20" t="str">
+      <c r="M9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N9" s="20" t="str">
+      <c r="N9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O9" s="20" t="str">
+      <c r="O9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P9" s="20" t="str">
+      <c r="P9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q9" s="20" t="str">
+      <c r="Q9" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R9" s="21" t="str">
+      <c r="R9" s="20" t="str">
         <f>_xlfn.XLOOKUP(B9,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="30" t="str">
+      <c r="B10" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D10" s="30" t="str">
+      <c r="D10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E10" s="30" t="str">
+      <c r="E10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F10" s="30" t="str">
+      <c r="F10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G10" s="30" t="str">
+      <c r="G10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H10" s="30" t="str">
+      <c r="H10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I10" s="30" t="str">
+      <c r="I10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J10" s="30" t="str">
+      <c r="J10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K10" s="30" t="str">
+      <c r="K10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L10" s="30" t="str">
+      <c r="L10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M10" s="30" t="str">
+      <c r="M10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N10" s="30" t="str">
+      <c r="N10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O10" s="30" t="str">
+      <c r="O10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P10" s="30" t="str">
+      <c r="P10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q10" s="30" t="str">
+      <c r="Q10" s="28" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R10" s="31" t="str">
+      <c r="R10" s="29" t="str">
         <f>_xlfn.XLOOKUP(B10,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="20" t="str">
+        <v>52</v>
+      </c>
+      <c r="C11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D11" s="20" t="str">
+      <c r="D11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E11" s="20" t="str">
+      <c r="E11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F11" s="20">
+      <c r="F11">
         <f>_xlfn.XLOOKUP(B11,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="G11" s="20" t="str">
+      <c r="G11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H11" s="20" t="str">
+      <c r="H11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I11" s="20" t="str">
+      <c r="I11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J11" s="20" t="str">
+      <c r="J11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K11" s="20">
+      <c r="K11">
         <f>_xlfn.XLOOKUP(B11,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="L11" s="20" t="str">
+      <c r="L11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M11" s="20" t="str">
+      <c r="M11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N11" s="20" t="str">
+      <c r="N11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O11" s="20" t="str">
+      <c r="O11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P11" s="20" t="str">
+      <c r="P11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q11" s="20" t="str">
+      <c r="Q11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="20">
         <f>_xlfn.XLOOKUP(B11,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="30" t="str">
+      <c r="B12" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D12" s="30" t="str">
+      <c r="D12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E12" s="30" t="str">
+      <c r="E12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F12" s="30" t="str">
+      <c r="F12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G12" s="30" t="str">
+      <c r="G12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H12" s="30" t="str">
+      <c r="H12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I12" s="30" t="str">
+      <c r="I12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J12" s="30" t="str">
+      <c r="J12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K12" s="30" t="str">
+      <c r="K12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L12" s="30" t="str">
+      <c r="L12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M12" s="30" t="str">
+      <c r="M12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N12" s="30" t="str">
+      <c r="N12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O12" s="30" t="str">
+      <c r="O12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P12" s="30" t="str">
+      <c r="P12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q12" s="30" t="str">
+      <c r="Q12" s="28" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R12" s="31" t="str">
+      <c r="R12" s="29" t="str">
         <f>_xlfn.XLOOKUP(B12,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="20" t="str">
+        <v>54</v>
+      </c>
+      <c r="C13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D13" s="20" t="str">
+      <c r="D13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E13" s="20" t="str">
+      <c r="E13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F13" s="20">
+      <c r="F13">
         <f>_xlfn.XLOOKUP(B13,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="20" t="str">
+      <c r="G13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H13" s="20" t="str">
+      <c r="H13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I13" s="20" t="str">
+      <c r="I13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J13" s="20">
+      <c r="J13">
         <f>_xlfn.XLOOKUP(B13,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="K13" s="20" t="str">
+      <c r="K13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L13" s="20" t="str">
+      <c r="L13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M13" s="20" t="str">
+      <c r="M13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N13" s="20" t="str">
+      <c r="N13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O13" s="20">
+      <c r="O13">
         <f>_xlfn.XLOOKUP(B13,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="P13" s="20" t="str">
+      <c r="P13" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13">
         <f>_xlfn.XLOOKUP(B13,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="R13" s="21" t="str">
+      <c r="R13" s="20" t="str">
         <f>_xlfn.XLOOKUP(B13,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="20" t="str">
+        <v>70</v>
+      </c>
+      <c r="C14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D14" s="20" t="str">
+      <c r="D14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E14" s="20" t="str">
+      <c r="E14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F14" s="20" t="str">
+      <c r="F14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G14" s="20" t="str">
+      <c r="G14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H14" s="20" t="str">
+      <c r="H14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I14" s="20" t="str">
+      <c r="I14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J14" s="20" t="str">
+      <c r="J14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K14" s="20">
+      <c r="K14">
         <f>_xlfn.XLOOKUP(B14,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14">
         <f>_xlfn.XLOOKUP(B14,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="M14" s="20" t="str">
+      <c r="M14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N14" s="20" t="str">
+      <c r="N14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O14" s="20" t="str">
+      <c r="O14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P14" s="20" t="str">
+      <c r="P14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q14" s="20" t="str">
+      <c r="Q14" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R14" s="20" t="str">
         <f>_xlfn.XLOOKUP(B14,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="20" t="str">
+        <v>67</v>
+      </c>
+      <c r="C15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D15" s="20" t="str">
+      <c r="D15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E15" s="20" t="str">
+      <c r="E15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F15" s="20" t="str">
+      <c r="F15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G15" s="20" t="str">
+      <c r="G15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H15" s="20" t="str">
+      <c r="H15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I15" s="20" t="str">
+      <c r="I15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J15" s="20">
+      <c r="J15">
         <f>_xlfn.XLOOKUP(B15,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="K15" s="20" t="str">
+      <c r="K15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L15" s="20" t="str">
+      <c r="L15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M15" s="20" t="str">
+      <c r="M15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N15" s="20" t="str">
+      <c r="N15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O15" s="20" t="str">
+      <c r="O15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P15" s="20" t="str">
+      <c r="P15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q15" s="20" t="str">
+      <c r="Q15" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R15" s="21" t="str">
+      <c r="R15" s="20" t="str">
         <f>_xlfn.XLOOKUP(B15,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="20" t="str">
+        <v>72</v>
+      </c>
+      <c r="C16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D16" s="20" t="str">
+      <c r="D16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E16" s="20" t="str">
+      <c r="E16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F16" s="20" t="str">
+      <c r="F16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G16" s="20" t="str">
+      <c r="G16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H16" s="20" t="str">
+      <c r="H16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I16" s="20" t="str">
+      <c r="I16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J16" s="20" t="str">
+      <c r="J16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K16" s="20" t="str">
+      <c r="K16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L16" s="20">
+      <c r="L16">
         <f>_xlfn.XLOOKUP(B16,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16">
         <f>_xlfn.XLOOKUP(B16,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16">
         <f>_xlfn.XLOOKUP(B16,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="O16" s="20" t="str">
+      <c r="O16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P16" s="20" t="str">
+      <c r="P16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q16" s="20" t="str">
+      <c r="Q16" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R16" s="21" t="str">
+      <c r="R16" s="20" t="str">
         <f>_xlfn.XLOOKUP(B16,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="20" t="str">
+        <v>74</v>
+      </c>
+      <c r="C17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D17" s="20" t="str">
+      <c r="D17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E17" s="20" t="str">
+      <c r="E17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F17" s="20" t="str">
+      <c r="F17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G17" s="20" t="str">
+      <c r="G17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H17" s="20" t="str">
+      <c r="H17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I17" s="20" t="str">
+      <c r="I17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J17" s="20" t="str">
+      <c r="J17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K17" s="20" t="str">
+      <c r="K17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L17" s="20" t="str">
+      <c r="L17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M17" s="20">
+      <c r="M17">
         <f>_xlfn.XLOOKUP(B17,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="N17" s="20">
+      <c r="N17">
         <f>_xlfn.XLOOKUP(B17,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="O17" s="20" t="str">
+      <c r="O17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P17" s="20" t="str">
+      <c r="P17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q17" s="20" t="str">
+      <c r="Q17" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R17" s="21" t="str">
+      <c r="R17" s="20" t="str">
         <f>_xlfn.XLOOKUP(B17,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="20" t="str">
+        <v>76</v>
+      </c>
+      <c r="C18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D18" s="20" t="str">
+      <c r="D18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E18" s="20" t="str">
+      <c r="E18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F18" s="20" t="str">
+      <c r="F18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G18" s="20" t="str">
+      <c r="G18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H18" s="20" t="str">
+      <c r="H18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I18" s="20" t="str">
+      <c r="I18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J18" s="20" t="str">
+      <c r="J18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K18" s="20" t="str">
+      <c r="K18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L18" s="20" t="str">
+      <c r="L18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M18" s="20">
+      <c r="M18">
         <f>_xlfn.XLOOKUP(B18,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18">
         <f>_xlfn.XLOOKUP(B18,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="O18" s="20" t="str">
+      <c r="O18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P18" s="20" t="str">
+      <c r="P18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q18" s="20" t="str">
+      <c r="Q18" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R18" s="21" t="str">
+      <c r="R18" s="20" t="str">
         <f>_xlfn.XLOOKUP(B18,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="30" t="str">
+      <c r="B19" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D19" s="30" t="str">
+      <c r="D19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E19" s="30" t="str">
+      <c r="E19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F19" s="30" t="str">
+      <c r="F19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G19" s="30" t="str">
+      <c r="G19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H19" s="30" t="str">
+      <c r="H19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I19" s="30" t="str">
+      <c r="I19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J19" s="30" t="str">
+      <c r="J19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K19" s="30" t="str">
+      <c r="K19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L19" s="30" t="str">
+      <c r="L19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M19" s="30" t="str">
+      <c r="M19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N19" s="30" t="str">
+      <c r="N19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O19" s="30" t="str">
+      <c r="O19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P19" s="30" t="str">
+      <c r="P19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q19" s="30" t="str">
+      <c r="Q19" s="28" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R19" s="31" t="str">
+      <c r="R19" s="29" t="str">
         <f>_xlfn.XLOOKUP(B19,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="20" t="str">
+        <v>60</v>
+      </c>
+      <c r="C20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D20" s="20" t="str">
+      <c r="D20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E20" s="20" t="str">
+      <c r="E20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F20" s="20" t="str">
+      <c r="F20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G20" s="20" t="str">
+      <c r="G20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H20" s="20" t="str">
+      <c r="H20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I20" s="20">
+      <c r="I20">
         <f>_xlfn.XLOOKUP(B20,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J20" s="20" t="str">
+      <c r="J20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K20" s="20" t="str">
+      <c r="K20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L20" s="20" t="str">
+      <c r="L20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M20" s="20" t="str">
+      <c r="M20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N20" s="20" t="str">
+      <c r="N20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O20" s="20" t="str">
+      <c r="O20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P20" s="20" t="str">
+      <c r="P20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q20" s="20" t="str">
+      <c r="Q20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R20" s="21" t="str">
+      <c r="R20" s="20" t="str">
         <f>_xlfn.XLOOKUP(B20,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="20" t="str">
+        <v>61</v>
+      </c>
+      <c r="C21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D21" s="20" t="str">
+      <c r="D21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E21" s="20" t="str">
+      <c r="E21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F21" s="20" t="str">
+      <c r="F21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G21" s="20" t="str">
+      <c r="G21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H21" s="20" t="str">
+      <c r="H21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I21" s="20">
+      <c r="I21">
         <f>_xlfn.XLOOKUP(B21,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J21" s="20" t="str">
+      <c r="J21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K21" s="20" t="str">
+      <c r="K21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L21" s="20" t="str">
+      <c r="L21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M21" s="20" t="str">
+      <c r="M21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N21" s="20" t="str">
+      <c r="N21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O21" s="20" t="str">
+      <c r="O21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P21" s="20" t="str">
+      <c r="P21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q21" s="20" t="str">
+      <c r="Q21" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R21" s="21" t="str">
+      <c r="R21" s="20" t="str">
         <f>_xlfn.XLOOKUP(B21,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="30" t="str">
+      <c r="B22" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D22" s="30" t="str">
+      <c r="D22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E22" s="30" t="str">
+      <c r="E22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F22" s="30" t="str">
+      <c r="F22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G22" s="30" t="str">
+      <c r="G22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H22" s="30" t="str">
+      <c r="H22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I22" s="30" t="str">
+      <c r="I22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J22" s="30" t="str">
+      <c r="J22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K22" s="30" t="str">
+      <c r="K22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L22" s="30" t="str">
+      <c r="L22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M22" s="30" t="str">
+      <c r="M22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N22" s="30" t="str">
+      <c r="N22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O22" s="30" t="str">
+      <c r="O22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P22" s="30" t="str">
+      <c r="P22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q22" s="30" t="str">
+      <c r="Q22" s="28" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R22" s="31" t="str">
+      <c r="R22" s="29" t="str">
         <f>_xlfn.XLOOKUP(B22,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="20">
+        <v>39</v>
+      </c>
+      <c r="C23">
         <f>_xlfn.XLOOKUP(B23,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="D23" s="20" t="str">
+      <c r="D23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E23" s="20" t="str">
+      <c r="E23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F23" s="20" t="str">
+      <c r="F23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G23" s="20" t="str">
+      <c r="G23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H23" s="20" t="str">
+      <c r="H23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I23" s="20" t="str">
+      <c r="I23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J23" s="20" t="str">
+      <c r="J23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K23" s="20">
+      <c r="K23">
         <f>_xlfn.XLOOKUP(B23,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>7</v>
       </c>
-      <c r="L23" s="20" t="str">
+      <c r="L23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M23" s="20" t="str">
+      <c r="M23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N23" s="20" t="str">
+      <c r="N23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O23" s="20" t="str">
+      <c r="O23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P23" s="20" t="str">
+      <c r="P23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q23" s="20">
+      <c r="Q23">
         <f>_xlfn.XLOOKUP(B23,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="R23" s="21">
+      <c r="R23" s="20">
         <f>_xlfn.XLOOKUP(B23,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="20">
+        <v>40</v>
+      </c>
+      <c r="C24">
         <f>_xlfn.XLOOKUP(B24,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24">
         <f>_xlfn.XLOOKUP(B24,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v>12</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24">
         <f>_xlfn.XLOOKUP(B24,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24">
         <f>_xlfn.XLOOKUP(B24,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="G24" s="20" t="str">
+      <c r="G24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H24" s="20" t="str">
+      <c r="H24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I24" s="20" t="str">
+      <c r="I24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J24" s="20" t="str">
+      <c r="J24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K24" s="20" t="str">
+      <c r="K24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L24" s="20" t="str">
+      <c r="L24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M24" s="20" t="str">
+      <c r="M24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N24" s="20" t="str">
+      <c r="N24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O24" s="20" t="str">
+      <c r="O24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P24" s="20" t="str">
+      <c r="P24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q24" s="20" t="str">
+      <c r="Q24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R24" s="21" t="str">
+      <c r="R24" s="20" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="20">
+        <v>41</v>
+      </c>
+      <c r="C25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E25" s="20" t="str">
+      <c r="E25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F25" s="20">
+      <c r="F25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="G25" s="20" t="str">
+      <c r="G25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H25" s="20" t="str">
+      <c r="H25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I25" s="20" t="str">
+      <c r="I25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J25" s="20">
+      <c r="J25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="K25" s="20" t="str">
+      <c r="K25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L25" s="20" t="str">
+      <c r="L25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M25" s="20">
+      <c r="M25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25">
         <f>_xlfn.XLOOKUP(B25,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="Q25" s="20" t="str">
+      <c r="Q25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R25" s="21" t="str">
+      <c r="R25" s="20" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="20" t="str">
+        <v>63</v>
+      </c>
+      <c r="C26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D26" s="20" t="str">
+      <c r="D26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E26" s="20" t="str">
+      <c r="E26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F26" s="20" t="str">
+      <c r="F26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G26" s="20" t="str">
+      <c r="G26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H26" s="20" t="str">
+      <c r="H26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I26" s="20">
+      <c r="I26">
         <f>_xlfn.XLOOKUP(B26,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="J26" s="20" t="str">
+      <c r="J26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K26" s="20" t="str">
+      <c r="K26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L26" s="20" t="str">
+      <c r="L26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M26" s="20" t="str">
+      <c r="M26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N26" s="20" t="str">
+      <c r="N26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O26" s="20" t="str">
+      <c r="O26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P26" s="20" t="str">
+      <c r="P26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q26" s="20" t="str">
+      <c r="Q26" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R26" s="21" t="str">
+      <c r="R26" s="20" t="str">
         <f>_xlfn.XLOOKUP(B26,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="20" t="str">
+        <v>66</v>
+      </c>
+      <c r="C27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D27" s="20" t="str">
+      <c r="D27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E27" s="20" t="str">
+      <c r="E27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F27" s="20" t="str">
+      <c r="F27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G27" s="20" t="str">
+      <c r="G27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H27" s="20" t="str">
+      <c r="H27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I27" s="20" t="str">
+      <c r="I27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J27" s="20">
+      <c r="J27">
         <f>_xlfn.XLOOKUP(B27,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="K27" s="20">
+      <c r="K27">
         <f>_xlfn.XLOOKUP(B27,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27">
         <f>_xlfn.XLOOKUP(B27,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v>1</v>
       </c>
-      <c r="M27" s="20" t="str">
+      <c r="M27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N27" s="20" t="str">
+      <c r="N27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O27" s="20" t="str">
+      <c r="O27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P27" s="20" t="str">
+      <c r="P27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q27" s="20" t="str">
+      <c r="Q27" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R27" s="21" t="str">
+      <c r="R27" s="20" t="str">
         <f>_xlfn.XLOOKUP(B27,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="30" t="str">
+      <c r="B28" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D28" s="30" t="str">
+      <c r="D28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E28" s="30" t="str">
+      <c r="E28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F28" s="30" t="str">
+      <c r="F28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G28" s="30" t="str">
+      <c r="G28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H28" s="30" t="str">
+      <c r="H28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I28" s="30" t="str">
+      <c r="I28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J28" s="30" t="str">
+      <c r="J28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K28" s="30" t="str">
+      <c r="K28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L28" s="30" t="str">
+      <c r="L28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M28" s="30" t="str">
+      <c r="M28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N28" s="30" t="str">
+      <c r="N28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O28" s="30" t="str">
+      <c r="O28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P28" s="30" t="str">
+      <c r="P28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q28" s="30" t="str">
+      <c r="Q28" s="28" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R28" s="31" t="str">
+      <c r="R28" s="29" t="str">
         <f>_xlfn.XLOOKUP(B28,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="20">
+        <v>45</v>
+      </c>
+      <c r="C29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="D29" s="20" t="str">
+      <c r="D29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E29" s="20">
+      <c r="E29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="str">
+      <c r="F29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G29" s="20">
+      <c r="G29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v>3</v>
       </c>
-      <c r="H29" s="20">
+      <c r="H29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v>7</v>
       </c>
-      <c r="I29" s="20" t="str">
+      <c r="I29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J29" s="20" t="str">
+      <c r="J29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K29" s="20">
+      <c r="K29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="L29" s="20" t="str">
+      <c r="L29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M29" s="20">
+      <c r="M29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v>2</v>
       </c>
-      <c r="N29" s="20" t="str">
+      <c r="N29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O29" s="20" t="str">
+      <c r="O29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P29" s="20">
+      <c r="P29">
         <f>_xlfn.XLOOKUP(B29,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="Q29" s="20" t="str">
+      <c r="Q29" t="str">
         <f>_xlfn.XLOOKUP(B29,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="20">
         <f>_xlfn.XLOOKUP(B29,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="20" t="str">
+        <v>71</v>
+      </c>
+      <c r="C30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D30" s="20" t="str">
+      <c r="D30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E30" s="20" t="str">
+      <c r="E30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F30" s="20" t="str">
+      <c r="F30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G30" s="20" t="str">
+      <c r="G30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H30" s="20" t="str">
+      <c r="H30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I30" s="20" t="str">
+      <c r="I30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v/>
       </c>
-      <c r="J30" s="20" t="str">
+      <c r="J30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K30" s="20">
+      <c r="K30">
         <f>_xlfn.XLOOKUP(B30,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v>4</v>
       </c>
-      <c r="L30" s="20" t="str">
+      <c r="L30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M30" s="20" t="str">
+      <c r="M30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N30" s="20" t="str">
+      <c r="N30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O30" s="20" t="str">
+      <c r="O30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P30" s="20" t="str">
+      <c r="P30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q30" s="20" t="str">
+      <c r="Q30" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R30" s="21" t="str">
+      <c r="R30" s="20" t="str">
         <f>_xlfn.XLOOKUP(B30,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="23" t="str">
+        <v>62</v>
+      </c>
+      <c r="C31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
         <v/>
       </c>
-      <c r="D31" s="23" t="str">
+      <c r="D31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
         <v/>
       </c>
-      <c r="E31" s="23" t="str">
+      <c r="E31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!H$3:H$8,Sheet2!I$3:I$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="F31" s="23" t="str">
+      <c r="F31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!L$3:L$8,Sheet2!M$3:M$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="G31" s="23" t="str">
+      <c r="G31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!P$3:P$8,Sheet2!Q$3:Q$8,"",0,1)</f>
         <v/>
       </c>
-      <c r="H31" s="23" t="str">
+      <c r="H31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!S$3:S$9,Sheet2!T$3:T$9,"",0,1)</f>
         <v/>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <f>_xlfn.XLOOKUP(B31,Sheet2!V$3:V$10,Sheet2!W$3:W$10,"",0,1)</f>
         <v>6</v>
       </c>
-      <c r="J31" s="23" t="str">
+      <c r="J31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K31" s="23" t="str">
+      <c r="K31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
         <v/>
       </c>
-      <c r="L31" s="23" t="str">
+      <c r="L31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="M31" s="23" t="str">
+      <c r="M31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!H$19:H$26,Sheet2!I$19:I$26,"",0,1)</f>
         <v/>
       </c>
-      <c r="N31" s="23" t="str">
+      <c r="N31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!L$19:L$23,Sheet2!M$19:M$23,"",0,1)</f>
         <v/>
       </c>
-      <c r="O31" s="23" t="str">
+      <c r="O31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!P$19:P$21,Sheet2!Q$19:Q$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="P31" s="23" t="str">
+      <c r="P31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!S$19:S$22,Sheet2!T$19:T$22,"",0,1)</f>
         <v/>
       </c>
-      <c r="Q31" s="23" t="str">
+      <c r="Q31" s="22" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!V$19:V$21,Sheet2!W$19:W$21,"",0,1)</f>
         <v/>
       </c>
-      <c r="R31" s="24" t="str">
+      <c r="R31" s="23" t="str">
         <f>_xlfn.XLOOKUP(B31,Sheet2!Z$19:Z$24,Sheet2!AA$19:AA$24,"",0,1)</f>
         <v/>
       </c>

--- a/BoM.xlsx
+++ b/BoM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/col/Documents/GitHub/Pan-Tilt-Slider-Mount/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E08309E-E9C6-7341-9780-AF6F5CDB1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8F12C8-8253-DB46-B4C1-C614FC0A99B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="1600" windowWidth="28040" windowHeight="17440" xr2:uid="{7D7507C8-E512-8F40-AC52-54E4FCE5CD5C}"/>
+    <workbookView xWindow="500" yWindow="4880" windowWidth="36000" windowHeight="22580" activeTab="1" xr2:uid="{7D7507C8-E512-8F40-AC52-54E4FCE5CD5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="108">
   <si>
     <t>Circuit</t>
   </si>
@@ -332,6 +332,36 @@
   </si>
   <si>
     <t>U.FL Mini PCI to SMA Female 10cm Lead</t>
+  </si>
+  <si>
+    <t>M2.5 Insert</t>
+  </si>
+  <si>
+    <t>M2.5 x 8 CS</t>
+  </si>
+  <si>
+    <t>M5 P Nyloc Nut</t>
+  </si>
+  <si>
+    <t>M3 x 10 CS</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>10 CS</t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>M5 Nyloc</t>
   </si>
 </sst>
 </file>
@@ -387,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -490,12 +520,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -526,12 +580,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -869,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49387D02-6FC5-D140-8324-770FD729D828}">
   <dimension ref="B3:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -909,14 +966,14 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="20">
         <v>1</v>
       </c>
       <c r="F4" s="19"/>
-      <c r="G4" s="30" t="s">
+      <c r="G4" t="s">
         <v>93</v>
       </c>
       <c r="H4" s="20">
@@ -932,14 +989,14 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="19"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="20">
         <v>1</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="30" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="20">
@@ -950,14 +1007,13 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="19"/>
-      <c r="C6" s="30" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="20">
         <v>4</v>
       </c>
       <c r="F6" s="19"/>
-      <c r="G6" s="30"/>
       <c r="H6" s="20"/>
       <c r="J6" s="19"/>
       <c r="K6" t="s">
@@ -969,14 +1025,14 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="19"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="20">
         <v>1</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="20">
@@ -992,14 +1048,14 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="19"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="20">
         <v>1</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="30" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="20">
@@ -1015,14 +1071,14 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="20">
         <v>2</v>
       </c>
       <c r="F9" s="19"/>
-      <c r="G9" s="30" t="s">
+      <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="20">
@@ -1033,14 +1089,13 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="19"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="20">
         <v>5</v>
       </c>
       <c r="F10" s="19"/>
-      <c r="G10" s="30"/>
       <c r="H10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" t="s">
@@ -1052,14 +1107,14 @@
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="19"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="20">
         <v>4</v>
       </c>
       <c r="F11" s="19"/>
-      <c r="G11" s="30" t="s">
+      <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" s="20">
@@ -1070,14 +1125,14 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="19"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="20">
         <v>1</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="30" t="s">
+      <c r="G12" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="20">
@@ -1093,14 +1148,13 @@
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="19"/>
-      <c r="C13" s="30" t="s">
+      <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="20">
         <v>1</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="30"/>
       <c r="H13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" t="s">
@@ -1112,14 +1166,14 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="19"/>
-      <c r="C14" s="30" t="s">
+      <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" s="20">
         <v>4</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="30" t="s">
+      <c r="G14" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="20">
@@ -1130,14 +1184,14 @@
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="19"/>
-      <c r="C15" s="30" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="20">
         <v>3</v>
       </c>
       <c r="F15" s="19"/>
-      <c r="G15" s="30" t="s">
+      <c r="G15" t="s">
         <v>38</v>
       </c>
       <c r="H15" s="20">
@@ -1153,28 +1207,27 @@
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="19"/>
-      <c r="C16" s="30" t="s">
+      <c r="C16" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="20">
         <v>1</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="30"/>
       <c r="H16" s="20"/>
       <c r="J16" s="19"/>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="19"/>
-      <c r="C17" s="30" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="20">
         <v>4</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="20">
@@ -1190,14 +1243,14 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="19"/>
-      <c r="C18" s="30" t="s">
+      <c r="C18" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="20">
         <v>3</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="30" t="s">
+      <c r="G18" t="s">
         <v>26</v>
       </c>
       <c r="H18" s="20">
@@ -1213,12 +1266,12 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="19"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="20"/>
       <c r="F19" s="19"/>
-      <c r="G19" s="30" t="s">
+      <c r="G19" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="20">
@@ -1239,7 +1292,6 @@
       </c>
       <c r="D20" s="23"/>
       <c r="F20" s="19"/>
-      <c r="G20" s="30"/>
       <c r="H20" s="20"/>
       <c r="J20" s="21"/>
       <c r="K20" s="22" t="s">
@@ -1251,19 +1303,19 @@
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F21" s="19"/>
-      <c r="G21" s="32" t="s">
+      <c r="G21" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="F22" s="21"/>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H22" s="23">
         <v>1</v>
       </c>
     </row>
@@ -1273,7 +1325,7 @@
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="G25" s="31" t="s">
+      <c r="G25" s="30" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1289,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67F7AFB-FCA0-6A42-BBD3-C9865C122204}">
   <dimension ref="B2:AA61"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1354,7 @@
     <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.5" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
@@ -1343,7 +1395,7 @@
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C3" s="4">
         <v>4</v>
@@ -1399,7 +1451,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="6">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -1439,7 +1491,7 @@
     </row>
     <row r="5" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
@@ -1510,11 +1562,11 @@
       </c>
     </row>
     <row r="7" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6">
-        <v>6</v>
+      <c r="B7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="32">
+        <v>4</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -1547,12 +1599,8 @@
       </c>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2</v>
-      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>45</v>
       </c>
@@ -1599,8 +1647,12 @@
       <c r="X9" s="8"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
       <c r="V10" s="9" t="s">
         <v>64</v>
       </c>
@@ -1610,10 +1662,22 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C13" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1697,10 +1761,10 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="C20" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
@@ -1720,8 +1784,12 @@
       <c r="AA20" s="8"/>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
+      <c r="B21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
       <c r="E21" s="5" t="s">
         <v>70</v>
       </c>
@@ -1772,16 +1840,12 @@
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="6">
         <v>2</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -1813,11 +1877,13 @@
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C23" s="6">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20"/>
       <c r="H23" s="5" t="s">
         <v>76</v>
       </c>
@@ -1845,9 +1911,15 @@
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="10">
         <v>4</v>
       </c>
       <c r="H24" s="7"/>
@@ -1861,8 +1933,12 @@
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="6">
+        <v>4</v>
+      </c>
       <c r="H25" s="5" t="s">
         <v>69</v>
       </c>
@@ -1874,12 +1950,8 @@
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="6">
-        <v>4</v>
-      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="8"/>
       <c r="H26" s="9" t="s">
         <v>45</v>
       </c>
@@ -1891,22 +1963,30 @@
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
+      <c r="B27" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B29" s="9" t="s">
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B30" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C30" s="10">
         <v>4</v>
       </c>
     </row>
@@ -1917,92 +1997,580 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B35" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" s="35">
+        <v>8</v>
+      </c>
+      <c r="C36" s="33">
+        <f>SUM(D36:N36)</f>
+        <v>4</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33">
+        <v>4</v>
+      </c>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="20"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" s="35">
+        <v>10</v>
+      </c>
+      <c r="C37" s="33">
+        <f>SUM(D37:N37)</f>
+        <v>8</v>
+      </c>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33">
+        <v>4</v>
+      </c>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33">
+        <v>4</v>
+      </c>
+      <c r="N37" s="20"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" s="35">
+        <v>12</v>
+      </c>
+      <c r="C38" s="33">
+        <f>SUM(D38:N38)</f>
+        <v>4</v>
+      </c>
+      <c r="D38" s="33">
+        <v>4</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="20"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" s="35">
+        <v>16</v>
+      </c>
+      <c r="C39" s="33">
+        <f>SUM(D39:N39)</f>
+        <v>12</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33">
+        <v>4</v>
+      </c>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33">
+        <v>4</v>
+      </c>
+      <c r="J39" s="33">
+        <v>2</v>
+      </c>
+      <c r="K39" s="33">
+        <v>2</v>
+      </c>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" s="35">
+        <v>20</v>
+      </c>
+      <c r="C40" s="33">
+        <f>SUM(D40:N40)</f>
+        <v>4</v>
+      </c>
+      <c r="D40" s="33">
+        <v>2</v>
+      </c>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" s="35">
+        <v>25</v>
+      </c>
+      <c r="C41" s="33">
+        <f>SUM(D41:N41)</f>
+        <v>3</v>
+      </c>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33">
+        <v>1</v>
+      </c>
+      <c r="L41" s="33">
+        <v>2</v>
+      </c>
+      <c r="M41" s="33"/>
+      <c r="N41" s="20"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B42" s="35">
+        <v>30</v>
+      </c>
+      <c r="C42" s="33">
+        <f>SUM(D42:N42)</f>
+        <v>10</v>
+      </c>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33">
+        <v>6</v>
+      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33">
+        <v>2</v>
+      </c>
+      <c r="I42" s="33">
+        <v>2</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="20"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B43" s="35">
+        <v>45</v>
+      </c>
+      <c r="C43" s="33">
+        <f>SUM(D43:N43)</f>
+        <v>8</v>
+      </c>
+      <c r="D43" s="33">
+        <v>6</v>
+      </c>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33">
+        <v>1</v>
+      </c>
+      <c r="I43" s="33">
+        <v>1</v>
+      </c>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="20"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B44" s="35"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="20"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B45" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="33">
+        <f>SUM(D45:N45)</f>
+        <v>6</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33">
+        <v>2</v>
+      </c>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33">
+        <v>4</v>
+      </c>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="20"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B46" s="35"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="20"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B47" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="33">
+        <f>SUM(D47:N47)</f>
+        <v>32</v>
+      </c>
+      <c r="D47" s="33">
+        <v>4</v>
+      </c>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33">
+        <v>10</v>
+      </c>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33">
+        <v>3</v>
+      </c>
+      <c r="I47" s="33">
+        <v>7</v>
+      </c>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33">
+        <v>2</v>
+      </c>
+      <c r="L47" s="33">
+        <v>2</v>
+      </c>
+      <c r="M47" s="33">
+        <v>4</v>
+      </c>
+      <c r="N47" s="20"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B48" s="35"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="20"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B49" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="22">
+        <f>SUM(D49:N49)</f>
+        <v>34</v>
+      </c>
+      <c r="D49" s="22">
+        <v>10</v>
+      </c>
+      <c r="E49" s="22">
+        <v>12</v>
+      </c>
+      <c r="F49" s="22">
+        <v>4</v>
+      </c>
+      <c r="G49" s="22">
+        <v>4</v>
+      </c>
+      <c r="H49" s="22">
+        <v>4</v>
+      </c>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="23"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B51" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B52" s="35">
+        <v>20</v>
+      </c>
+      <c r="C52" s="33">
+        <f>SUM(D52:K52)</f>
+        <v>10</v>
+      </c>
+      <c r="D52" s="33">
+        <v>2</v>
+      </c>
+      <c r="E52" s="33">
+        <v>4</v>
+      </c>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33">
+        <v>2</v>
+      </c>
+      <c r="K52" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B53" s="35">
+        <v>25</v>
+      </c>
+      <c r="C53" s="33">
+        <f t="shared" ref="C53:C61" si="0">SUM(D53:K53)</f>
+        <v>8</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33">
+        <v>4</v>
+      </c>
+      <c r="G53" s="33">
+        <v>4</v>
+      </c>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B54" s="35">
+        <v>30</v>
+      </c>
+      <c r="C54" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33">
+        <v>4</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="20"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B55" s="35">
+        <v>35</v>
+      </c>
+      <c r="C55" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33">
+        <v>4</v>
+      </c>
+      <c r="H55" s="33">
+        <v>2</v>
+      </c>
+      <c r="I55" s="33">
+        <v>2</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B56" s="35">
+        <v>45</v>
+      </c>
+      <c r="C56" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33">
+        <v>2</v>
+      </c>
+      <c r="I56" s="33">
+        <v>2</v>
+      </c>
+      <c r="J56" s="33"/>
+      <c r="K56" s="20"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B57" s="35">
+        <v>55</v>
+      </c>
+      <c r="C57" s="33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33">
+        <v>2</v>
+      </c>
+      <c r="I57" s="33">
+        <v>2</v>
+      </c>
+      <c r="J57" s="33"/>
+      <c r="K57" s="20"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B58" s="37"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B59" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D59" s="33">
+        <v>4</v>
+      </c>
+      <c r="E59" s="33">
+        <v>4</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B60" s="37"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B61" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="22">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D61" s="22">
+        <v>4</v>
+      </c>
+      <c r="E61" s="22">
+        <v>2</v>
+      </c>
+      <c r="F61" s="22">
+        <v>4</v>
+      </c>
+      <c r="G61" s="22">
+        <v>6</v>
+      </c>
+      <c r="H61" s="22">
+        <v>6</v>
+      </c>
+      <c r="I61" s="22">
+        <v>6</v>
+      </c>
+      <c r="J61" s="22">
+        <v>4</v>
+      </c>
+      <c r="K61" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2094,7 +2662,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="str">
-        <f>_xlfn.XLOOKUP(B3,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B3,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D3">
@@ -2126,7 +2694,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <f>_xlfn.XLOOKUP(B3,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B3,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L3" t="str">
@@ -2163,7 +2731,7 @@
         <v>47</v>
       </c>
       <c r="C4" t="str">
-        <f>_xlfn.XLOOKUP(B4,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B4,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D4" t="str">
@@ -2195,7 +2763,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <f>_xlfn.XLOOKUP(B4,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B4,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L4" t="str">
@@ -2232,7 +2800,7 @@
         <v>53</v>
       </c>
       <c r="C5" t="str">
-        <f>_xlfn.XLOOKUP(B5,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B5,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D5" t="str">
@@ -2264,7 +2832,7 @@
         <v/>
       </c>
       <c r="K5">
-        <f>_xlfn.XLOOKUP(B5,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B5,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>2</v>
       </c>
       <c r="L5" t="str">
@@ -2301,7 +2869,7 @@
         <v>43</v>
       </c>
       <c r="C6">
-        <f>_xlfn.XLOOKUP(B6,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B6,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v>2</v>
       </c>
       <c r="D6" t="str">
@@ -2333,7 +2901,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>_xlfn.XLOOKUP(B6,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B6,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L6" t="str">
@@ -2370,7 +2938,7 @@
         <v>69</v>
       </c>
       <c r="C7" t="str">
-        <f>_xlfn.XLOOKUP(B7,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B7,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D7" t="str">
@@ -2402,7 +2970,7 @@
         <v/>
       </c>
       <c r="K7">
-        <f>_xlfn.XLOOKUP(B7,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B7,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>1</v>
       </c>
       <c r="L7" t="str">
@@ -2439,7 +3007,7 @@
         <v>48</v>
       </c>
       <c r="C8" t="str">
-        <f>_xlfn.XLOOKUP(B8,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B8,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D8" t="str">
@@ -2471,7 +3039,7 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>_xlfn.XLOOKUP(B8,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B8,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L8" t="str">
@@ -2508,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="C9">
-        <f>_xlfn.XLOOKUP(B9,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B9,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v>6</v>
       </c>
       <c r="D9" t="str">
@@ -2540,7 +3108,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>_xlfn.XLOOKUP(B9,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B9,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L9" t="str">
@@ -2577,7 +3145,7 @@
         <v>89</v>
       </c>
       <c r="C10" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B10,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B10,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D10" s="28" t="str">
@@ -2609,7 +3177,7 @@
         <v/>
       </c>
       <c r="K10" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B10,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B10,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L10" s="28" t="str">
@@ -2646,7 +3214,7 @@
         <v>52</v>
       </c>
       <c r="C11" t="str">
-        <f>_xlfn.XLOOKUP(B11,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B11,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D11" t="str">
@@ -2677,9 +3245,9 @@
         <f>_xlfn.XLOOKUP(B11,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K11">
-        <f>_xlfn.XLOOKUP(B11,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
-        <v>4</v>
+      <c r="K11" t="str">
+        <f>_xlfn.XLOOKUP(B11,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
+        <v/>
       </c>
       <c r="L11" t="str">
         <f>_xlfn.XLOOKUP(B11,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
@@ -2715,7 +3283,7 @@
         <v>89</v>
       </c>
       <c r="C12" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B12,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B12,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D12" s="28" t="str">
@@ -2747,7 +3315,7 @@
         <v/>
       </c>
       <c r="K12" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B12,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B12,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L12" s="28" t="str">
@@ -2784,7 +3352,7 @@
         <v>54</v>
       </c>
       <c r="C13" t="str">
-        <f>_xlfn.XLOOKUP(B13,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B13,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D13" t="str">
@@ -2816,7 +3384,7 @@
         <v>4</v>
       </c>
       <c r="K13" t="str">
-        <f>_xlfn.XLOOKUP(B13,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B13,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L13" t="str">
@@ -2853,7 +3421,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="str">
-        <f>_xlfn.XLOOKUP(B14,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B14,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D14" t="str">
@@ -2885,7 +3453,7 @@
         <v/>
       </c>
       <c r="K14">
-        <f>_xlfn.XLOOKUP(B14,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B14,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>4</v>
       </c>
       <c r="L14">
@@ -2922,7 +3490,7 @@
         <v>67</v>
       </c>
       <c r="C15" t="str">
-        <f>_xlfn.XLOOKUP(B15,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B15,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D15" t="str">
@@ -2954,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="K15" t="str">
-        <f>_xlfn.XLOOKUP(B15,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B15,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L15" t="str">
@@ -2991,7 +3559,7 @@
         <v>72</v>
       </c>
       <c r="C16" t="str">
-        <f>_xlfn.XLOOKUP(B16,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B16,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D16" t="str">
@@ -3023,7 +3591,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>_xlfn.XLOOKUP(B16,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B16,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L16">
@@ -3060,7 +3628,7 @@
         <v>74</v>
       </c>
       <c r="C17" t="str">
-        <f>_xlfn.XLOOKUP(B17,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B17,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D17" t="str">
@@ -3092,7 +3660,7 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>_xlfn.XLOOKUP(B17,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B17,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L17" t="str">
@@ -3129,7 +3697,7 @@
         <v>76</v>
       </c>
       <c r="C18" t="str">
-        <f>_xlfn.XLOOKUP(B18,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B18,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D18" t="str">
@@ -3161,7 +3729,7 @@
         <v/>
       </c>
       <c r="K18" t="str">
-        <f>_xlfn.XLOOKUP(B18,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B18,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L18" t="str">
@@ -3198,7 +3766,7 @@
         <v>89</v>
       </c>
       <c r="C19" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B19,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B19,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D19" s="28" t="str">
@@ -3230,7 +3798,7 @@
         <v/>
       </c>
       <c r="K19" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B19,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B19,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L19" s="28" t="str">
@@ -3267,7 +3835,7 @@
         <v>60</v>
       </c>
       <c r="C20" t="str">
-        <f>_xlfn.XLOOKUP(B20,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B20,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D20" t="str">
@@ -3299,7 +3867,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <f>_xlfn.XLOOKUP(B20,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B20,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L20" t="str">
@@ -3336,7 +3904,7 @@
         <v>61</v>
       </c>
       <c r="C21" t="str">
-        <f>_xlfn.XLOOKUP(B21,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B21,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D21" t="str">
@@ -3368,7 +3936,7 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <f>_xlfn.XLOOKUP(B21,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B21,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L21" t="str">
@@ -3405,7 +3973,7 @@
         <v>89</v>
       </c>
       <c r="C22" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B22,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B22,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D22" s="28" t="str">
@@ -3437,7 +4005,7 @@
         <v/>
       </c>
       <c r="K22" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B22,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B22,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L22" s="28" t="str">
@@ -3473,9 +4041,9 @@
       <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23">
-        <f>_xlfn.XLOOKUP(B23,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
-        <v>4</v>
+      <c r="C23" t="str">
+        <f>_xlfn.XLOOKUP(B23,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
+        <v/>
       </c>
       <c r="D23" t="str">
         <f>_xlfn.XLOOKUP(B23,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
@@ -3506,7 +4074,7 @@
         <v/>
       </c>
       <c r="K23">
-        <f>_xlfn.XLOOKUP(B23,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B23,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>7</v>
       </c>
       <c r="L23" t="str">
@@ -3543,8 +4111,8 @@
         <v>40</v>
       </c>
       <c r="C24">
-        <f>_xlfn.XLOOKUP(B24,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
-        <v>6</v>
+        <f>_xlfn.XLOOKUP(B24,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
+        <v>10</v>
       </c>
       <c r="D24">
         <f>_xlfn.XLOOKUP(B24,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
@@ -3574,9 +4142,9 @@
         <f>_xlfn.XLOOKUP(B24,Sheet2!Z$3:Z$7,Sheet2!AA$3:AA$7,"",0,1)</f>
         <v/>
       </c>
-      <c r="K24" t="str">
-        <f>_xlfn.XLOOKUP(B24,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
-        <v/>
+      <c r="K24">
+        <f>_xlfn.XLOOKUP(B24,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
+        <v>4</v>
       </c>
       <c r="L24" t="str">
         <f>_xlfn.XLOOKUP(B24,Sheet2!E$19:E$22,Sheet2!F$19:F$22,"",0,1)</f>
@@ -3611,9 +4179,9 @@
       <c r="B25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C25">
-        <f>_xlfn.XLOOKUP(B25,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
-        <v>4</v>
+      <c r="C25" t="str">
+        <f>_xlfn.XLOOKUP(B25,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
+        <v/>
       </c>
       <c r="D25" t="str">
         <f>_xlfn.XLOOKUP(B25,Sheet2!E$3:E$5,Sheet2!F$3:F$5,"",0,1)</f>
@@ -3644,7 +4212,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="str">
-        <f>_xlfn.XLOOKUP(B25,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B25,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L25" t="str">
@@ -3681,7 +4249,7 @@
         <v>63</v>
       </c>
       <c r="C26" t="str">
-        <f>_xlfn.XLOOKUP(B26,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B26,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D26" t="str">
@@ -3713,7 +4281,7 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <f>_xlfn.XLOOKUP(B26,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B26,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L26" t="str">
@@ -3750,7 +4318,7 @@
         <v>66</v>
       </c>
       <c r="C27" t="str">
-        <f>_xlfn.XLOOKUP(B27,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B27,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D27" t="str">
@@ -3782,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="K27">
-        <f>_xlfn.XLOOKUP(B27,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B27,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>1</v>
       </c>
       <c r="L27">
@@ -3819,7 +4387,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B28,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B28,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D28" s="28" t="str">
@@ -3851,7 +4419,7 @@
         <v/>
       </c>
       <c r="K28" s="28" t="str">
-        <f>_xlfn.XLOOKUP(B28,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B28,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L28" s="28" t="str">
@@ -3888,7 +4456,7 @@
         <v>45</v>
       </c>
       <c r="C29">
-        <f>_xlfn.XLOOKUP(B29,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B29,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v>4</v>
       </c>
       <c r="D29" t="str">
@@ -3920,7 +4488,7 @@
         <v/>
       </c>
       <c r="K29">
-        <f>_xlfn.XLOOKUP(B29,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B29,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>2</v>
       </c>
       <c r="L29" t="str">
@@ -3957,7 +4525,7 @@
         <v>71</v>
       </c>
       <c r="C30" t="str">
-        <f>_xlfn.XLOOKUP(B30,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B30,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D30" t="str">
@@ -3989,7 +4557,7 @@
         <v/>
       </c>
       <c r="K30">
-        <f>_xlfn.XLOOKUP(B30,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B30,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v>4</v>
       </c>
       <c r="L30" t="str">
@@ -4026,7 +4594,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="22" t="str">
-        <f>_xlfn.XLOOKUP(B31,Sheet2!B$3:B$11,Sheet2!C$3:C$11,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B31,Sheet2!B$3:B$13,Sheet2!C$3:C$13,"",0,1)</f>
         <v/>
       </c>
       <c r="D31" s="22" t="str">
@@ -4058,7 +4626,7 @@
         <v/>
       </c>
       <c r="K31" s="22" t="str">
-        <f>_xlfn.XLOOKUP(B31,Sheet2!B$19:B$29,Sheet2!C$19:C$29,"",0,1)</f>
+        <f>_xlfn.XLOOKUP(B31,Sheet2!B$19:B$30,Sheet2!C$19:C$30,"",0,1)</f>
         <v/>
       </c>
       <c r="L31" s="22" t="str">
